--- a/analysis/overall-means.xlsx
+++ b/analysis/overall-means.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aprilzuo/Desktop/Duke/Research/Data+/Tracking-Gazes-on-Museum-Pieces-Data-Plus/analysis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3C1164-98E2-EB47-91D3-60E99B13349B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="760" windowWidth="25500" windowHeight="13580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Non-VTS</t>
   </si>
@@ -25,26 +31,28 @@
     <t>Overall Mean</t>
   </si>
   <si>
-    <t>Mean Fixation Duration</t>
-  </si>
-  <si>
-    <t>Fixation Frequency</t>
-  </si>
-  <si>
-    <t>Mean Saccade Duration</t>
-  </si>
-  <si>
-    <t>Mean Saccade Distance</t>
-  </si>
-  <si>
-    <t>Saccade Frequency</t>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Mean Fixation Duration(s)</t>
+  </si>
+  <si>
+    <t>Fixation Frequency(/s)</t>
+  </si>
+  <si>
+    <t>Mean Saccade Duration(s)</t>
+  </si>
+  <si>
+    <t>Mean Saccade Distance(px)</t>
+  </si>
+  <si>
+    <t>Saccade Frequency(/s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,35 +116,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -147,10 +155,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -188,71 +196,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -280,7 +288,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -303,11 +311,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -316,13 +324,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -332,7 +340,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -341,7 +349,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -350,7 +358,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -358,10 +366,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -426,24 +434,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="2" max="4" width="12.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -454,74 +464,74 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4">
-        <v>0.6782224530749683</v>
+        <v>0.67822245307496831</v>
       </c>
       <c r="C2" s="4">
-        <v>0.4403017417384518</v>
+        <v>0.44030174173845182</v>
       </c>
       <c r="D2" s="4">
-        <v>0.5592620974067101</v>
+        <v>0.55926209740671007</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4">
-        <v>3.421777376592383</v>
+        <v>3.4217773765923831</v>
       </c>
       <c r="C3" s="4">
         <v>3.379534401887716</v>
       </c>
       <c r="D3" s="4">
-        <v>3.400655889240049</v>
+        <v>3.4006558892400491</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4">
-        <v>0.09965108355806429</v>
+        <v>9.9651083558064291E-2</v>
       </c>
       <c r="C4" s="4">
-        <v>0.1310962709038127</v>
+        <v>0.13109627090381271</v>
       </c>
       <c r="D4" s="4">
         <v>0.1153736772309385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
-        <v>87.93908444731022</v>
+        <v>87.939084447310222</v>
       </c>
       <c r="C5" s="4">
-        <v>98.5530463091107</v>
+        <v>98.553046309110698</v>
       </c>
       <c r="D5" s="4">
         <v>93.24606537821046</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4">
         <v>10.53737501632345</v>
       </c>
       <c r="C6" s="4">
-        <v>8.367182886798227</v>
+        <v>8.3671828867982274</v>
       </c>
       <c r="D6" s="4">
-        <v>9.452278951560839</v>
+        <v>9.4522789515608387</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/overall-means.xlsx
+++ b/analysis/overall-means.xlsx
@@ -1,88 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aprilzuo/Desktop/Duke/Research/Data+/Tracking-Gazes-on-Museum-Pieces-Data-Plus/analysis/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3C1164-98E2-EB47-91D3-60E99B13349B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="760" windowWidth="25500" windowHeight="13580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Non-VTS</t>
-  </si>
-  <si>
-    <t>VTS</t>
-  </si>
-  <si>
-    <t>Overall Mean</t>
-  </si>
-  <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>Mean Fixation Duration(s)</t>
-  </si>
-  <si>
-    <t>Fixation Frequency(/s)</t>
-  </si>
-  <si>
-    <t>Mean Saccade Duration(s)</t>
-  </si>
-  <si>
-    <t>Mean Saccade Distance(px)</t>
-  </si>
-  <si>
-    <t>Saccade Frequency(/s)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,62 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -225,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -260,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -284,6 +268,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -294,31 +279,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -340,7 +325,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -398,7 +383,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -411,12 +396,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -434,107 +420,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="4" width="12.5" style="5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Non-VTS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>VTS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Mean</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.67822245307496831</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.44030174173845182</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.55926209740671007</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>mean fix duration(s)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2857171082141332</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2290805355742871</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2573988218942102</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4">
-        <v>3.4217773765923831</v>
-      </c>
-      <c r="C3" s="4">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>fixation freq</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.421777376592383</v>
+      </c>
+      <c r="C3" t="n">
         <v>3.379534401887716</v>
       </c>
-      <c r="D3" s="4">
-        <v>3.4006558892400491</v>
+      <c r="D3" t="n">
+        <v>3.400655889240049</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
-        <v>9.9651083558064291E-2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.13109627090381271</v>
-      </c>
-      <c r="D4" s="4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>mean sac duration(s)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.09965108355806429</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1310962709038127</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.1153736772309385</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4">
-        <v>87.939084447310222</v>
-      </c>
-      <c r="C5" s="4">
-        <v>98.553046309110698</v>
-      </c>
-      <c r="D5" s="4">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>mean sac distance</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>87.93908444731022</v>
+      </c>
+      <c r="C5" t="n">
+        <v>98.5530463091107</v>
+      </c>
+      <c r="D5" t="n">
         <v>93.24606537821046</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>saccade freq</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>10.53737501632345</v>
       </c>
-      <c r="C6" s="4">
-        <v>8.3671828867982274</v>
-      </c>
-      <c r="D6" s="4">
-        <v>9.4522789515608387</v>
+      <c r="C6" t="n">
+        <v>8.367182886798227</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.452278951560839</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>